--- a/20231105_VinhPhuc1/info/QuiDinhDiaChi1.xlsx
+++ b/20231105_VinhPhuc1/info/QuiDinhDiaChi1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCompany\8.SourceCode\3.Projects\20231101_MrThamHiTech4P\20231105_MrThamTraiHeoTinhVinhPhuc11\info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCompany\8.SourceCode\3.Projects\20231101_MrThamHiTech4P\20231105_VinhPhuc1\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680BB66E-D4F4-47F0-A495-7078F9BED569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BBFC7C-4BA4-43C5-A848-F1FC1B5D816E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLC Mapping" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mappingAddressHMI!$I$1:$R$273</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="706">
   <si>
     <t>Address</t>
   </si>
@@ -2166,6 +2166,21 @@
   </si>
   <si>
     <t>HAX238.0</t>
+  </si>
+  <si>
+    <t>HmiThayDoiCaiDat</t>
+  </si>
+  <si>
+    <t>KhoiLuongSilo</t>
+  </si>
+  <si>
+    <t>HAW305</t>
+  </si>
+  <si>
+    <t>HAW306</t>
+  </si>
+  <si>
+    <t>Dau can silo</t>
   </si>
 </sst>
 </file>
@@ -2388,7 +2403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2496,6 +2511,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2778,8 +2794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2791,6 +2807,7 @@
     <col min="13" max="13" width="14.5703125" customWidth="1"/>
     <col min="15" max="15" width="22.140625" customWidth="1"/>
     <col min="21" max="21" width="18.28515625" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="34.5" x14ac:dyDescent="0.45">
@@ -3000,7 +3017,7 @@
         <v>374</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>4</v>
+        <v>705</v>
       </c>
       <c r="AA6" s="4">
         <v>4</v>
@@ -3292,8 +3309,12 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
+      <c r="Z17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -3312,7 +3333,7 @@
         <v>368</v>
       </c>
       <c r="AA18" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
@@ -3332,7 +3353,7 @@
         <v>367</v>
       </c>
       <c r="AA19" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -3480,10 +3501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R274"/>
+  <dimension ref="A1:R275"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K275" sqref="K275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8328,10 +8349,32 @@
       </c>
     </row>
     <row r="274" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J274" s="17"/>
-      <c r="K274" s="4"/>
-      <c r="L274" s="4"/>
-      <c r="M274" s="4"/>
+      <c r="J274" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="K274" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="L274" s="4">
+        <v>241</v>
+      </c>
+      <c r="M274" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="275" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J275" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="K275" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="L275" s="51">
+        <v>242</v>
+      </c>
+      <c r="M275" s="4" t="s">
+        <v>457</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="I1:R273" xr:uid="{00000000-0001-0000-0100-000000000000}">
